--- a/biology/Zoologie/Forelius/Forelius.xlsx
+++ b/biology/Zoologie/Forelius/Forelius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neoforelius
 Forelius est un genre d'insectes hyménoptères de la famille des Formicidés (fourmis) et de la sous-famille des Dolichoderinae dans la tribu des Dolichoderini.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été publié en 1888 par l'entomologiste italien Emery (1848-1925)[1]. Ce genre a pour synonyme Neoforelius Kusnezov, 1953.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été publié en 1888 par l'entomologiste italien Emery (1848-1925). Ce genre a pour synonyme Neoforelius Kusnezov, 1953.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un genre de l'écozone néotropique[2]. Le genre est connu du sud des États-Unis jusqu'en Argentine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un genre de l'écozone néotropique. Le genre est connu du sud des États-Unis jusqu'en Argentine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dix-huit espèces sont connues[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dix-huit espèces sont connues :
 Forelius albiventris Forel, 1912
 Forelius andinus Kusnezov, 1957
 Forelius bahianus Cuezzo, 2000
